--- a/Projectplan.xlsx
+++ b/Projectplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itlabvi\Desktop\tmp\Webshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viuser\Desktop\tmp\Itlap-Webshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D629D55-0E02-4D9F-A060-B6535E3D569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C199871-C722-4F34-9643-6BDD0B5A1363}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5025" yWindow="5025" windowWidth="28800" windowHeight="15345" xr2:uid="{A8FA9D5E-548F-4804-969D-280856D34470}"/>
   </bookViews>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -37,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Start</t>
   </si>
@@ -162,23 +153,203 @@
     <t>29.</t>
   </si>
   <si>
-    <t>Backend: Create ER/UML Diagram</t>
-  </si>
-  <si>
-    <t>Frontend: Create Flowcharts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Create Class Diagram</t>
-  </si>
-  <si>
-    <t>Frontend: Screen Design</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Create ER/UML diagram of DB</t>
+  </si>
+  <si>
+    <t>Create class diagram</t>
+  </si>
+  <si>
+    <t>Create file structure diagram</t>
+  </si>
+  <si>
+    <t>Backend: Data validation and security measures (preventing MySQL injection)</t>
+  </si>
+  <si>
+    <t>Frontend: Implementation of the main window(s)</t>
+  </si>
+  <si>
+    <t>Frontend: Logic of the main window(s)</t>
+  </si>
+  <si>
+    <t>Backend: DB Handler best solution implementation</t>
+  </si>
+  <si>
+    <t>Test and debugging</t>
+  </si>
+  <si>
+    <t>Project acceptance and documentation</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>40.</t>
+  </si>
+  <si>
+    <t>41.</t>
+  </si>
+  <si>
+    <t>42.</t>
+  </si>
+  <si>
+    <t>43.</t>
+  </si>
+  <si>
+    <t>44.</t>
+  </si>
+  <si>
+    <t>45.</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): Fake payment integration supporting credit cards, PayPal, and other local/global gateways</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): Shopping cart interface including add/update/remove products, save for later, and guest checkout</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): Product catalog interface with categories and filtering options specific to electronics (brands, specifications, price range)</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): User accounts interface with registration/login, order history, wishlist</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): Intelligent product search, including autocomplete, typo tolerance, and voice search for easy product discovery</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): Language switcher</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): Order management system with tracking, order history, cancellation, and returns processing</t>
+  </si>
+  <si>
+    <t>Everything: Implementation of all the modules</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Planning and Setup</t>
+  </si>
+  <si>
+    <t>Modules and Features</t>
+  </si>
+  <si>
+    <t>Backend Part</t>
+  </si>
+  <si>
+    <t>Frontend Part</t>
+  </si>
+  <si>
+    <t>Setup project, containers &amp; database</t>
+  </si>
+  <si>
+    <t>Text and Content</t>
+  </si>
+  <si>
+    <t>English translation</t>
+  </si>
+  <si>
+    <t>German translation</t>
+  </si>
+  <si>
+    <t>Russian translation</t>
+  </si>
+  <si>
+    <t>Privacy policy and terms &amp; conditions to protect both the business and customers’ rights.</t>
+  </si>
+  <si>
+    <t>FAQs</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): Contact forms</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): Notification pop up</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): Inventory management interface with real-time stock level updates, low stock alerts, and easy restocking workflows</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): Admin dashboard for managing products, orders, customer data, and promotional campaigns</t>
+  </si>
+  <si>
+    <t>Module(frontend, UI/UX): Analytics and reporting for sales performance, user behavior, and inventory insights</t>
+  </si>
+  <si>
+    <t>Module(backend, communication with DB): Product catalog system with categories and filtering options specific to electronics (brands, specifications, price range)</t>
+  </si>
+  <si>
+    <t>Module(backend, communication with DB): User accounts system with registration/login, order history, wishlist</t>
+  </si>
+  <si>
+    <t>Module(backend, communication with DB): Shopping cart functionality including add/update/remove products, save for later, and guest checkout</t>
+  </si>
+  <si>
+    <t>Module(backend, email sending involved): Fake payment integration supporting credit cards, PayPal, and other local/global gateways</t>
+  </si>
+  <si>
+    <t>Module(backend, communication with DB): Order management system with tracking, order history, cancellation, and returns processing</t>
+  </si>
+  <si>
+    <t>Module(backend): Email sending system</t>
+  </si>
+  <si>
+    <t>Module(backend, communication with DB): Inventory management interface with real-time stock level updates, low stock alerts, and easy restocking workflows</t>
+  </si>
+  <si>
+    <t>Module(backend, communication with DB): Admin dashboard for managing products, orders, customer data, and promotional campaigns</t>
+  </si>
+  <si>
+    <t>Module(backend, communication with DB): Analytics and reporting for sales performance, user behavior, and inventory insights</t>
+  </si>
+  <si>
+    <t>Post Development</t>
+  </si>
+  <si>
+    <t>Items' info &amp; descriptions, Users etc. for DB</t>
+  </si>
+  <si>
+    <t>Create screen design in</t>
+  </si>
+  <si>
+    <t>46.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +369,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiCondensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiCondensed"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -315,28 +500,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -355,6 +575,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -381,6 +602,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -409,6 +631,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -437,6 +660,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -465,6 +689,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -493,6 +718,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -521,6 +747,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -549,6 +776,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -577,6 +805,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -605,6 +834,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -633,6 +863,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -643,76 +874,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -732,6 +893,81 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift SemiCondensed"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -757,8 +993,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0194701C-AE90-4BCA-9E31-6E94DB6E67B8}" name="Tabelle2" displayName="Tabelle2" ref="A1:L30" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L30" xr:uid="{0194701C-AE90-4BCA-9E31-6E94DB6E67B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0194701C-AE90-4BCA-9E31-6E94DB6E67B8}" name="Tabelle2" displayName="Tabelle2" ref="A1:L47" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:L47" xr:uid="{0194701C-AE90-4BCA-9E31-6E94DB6E67B8}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{C56ED50E-C13E-4FA9-B047-D3793D60C659}" name="Nr." dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{FD41CDC1-F149-417E-B043-0A5B895952CB}" name="Task" dataDxfId="10"/>
@@ -1074,537 +1310,1106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6686C795-F914-4931-AA02-9A946B2D4200}">
-  <dimension ref="A1:L30"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
+      <c r="B2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="3"/>
+      <c r="B3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="3"/>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
+      <c r="B8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
+      <c r="B16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
+      <c r="B20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="3"/>
+      <c r="B21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
+      <c r="B30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Projectplan.xlsx
+++ b/Projectplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viuser\Desktop\tmp\Itlap-Webshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itlabvi\Desktop\tmp\Webshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C199871-C722-4F34-9643-6BDD0B5A1363}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFA5C4A-2074-482D-97BE-A099D1E6E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="5025" windowWidth="28800" windowHeight="15345" xr2:uid="{A8FA9D5E-548F-4804-969D-280856D34470}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A8FA9D5E-548F-4804-969D-280856D34470}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
   <si>
     <t>Start</t>
   </si>
@@ -36,9 +45,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>End</t>
-  </si>
-  <si>
     <t>Planned Completion</t>
   </si>
   <si>
@@ -153,9 +159,6 @@
     <t>29.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Create ER/UML diagram of DB</t>
   </si>
   <si>
@@ -165,9 +168,6 @@
     <t>Create file structure diagram</t>
   </si>
   <si>
-    <t>Backend: Data validation and security measures (preventing MySQL injection)</t>
-  </si>
-  <si>
     <t>Frontend: Implementation of the main window(s)</t>
   </si>
   <si>
@@ -207,24 +207,6 @@
     <t>37.</t>
   </si>
   <si>
-    <t>38.</t>
-  </si>
-  <si>
-    <t>39.</t>
-  </si>
-  <si>
-    <t>40.</t>
-  </si>
-  <si>
-    <t>41.</t>
-  </si>
-  <si>
-    <t>42.</t>
-  </si>
-  <si>
-    <t>43.</t>
-  </si>
-  <si>
     <t>44.</t>
   </si>
   <si>
@@ -339,10 +321,19 @@
     <t>Items' info &amp; descriptions, Users etc. for DB</t>
   </si>
   <si>
-    <t>Create screen design in</t>
-  </si>
-  <si>
-    <t>46.</t>
+    <t>Backend: Data validation and security measures (preventing SQL injection)</t>
+  </si>
+  <si>
+    <t>Fr. Ley</t>
+  </si>
+  <si>
+    <t>Create screen design</t>
+  </si>
+  <si>
+    <t>Zelenkov</t>
+  </si>
+  <si>
+    <t>Sum:</t>
   </si>
 </sst>
 </file>
@@ -515,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -557,11 +548,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
     <dxf>
       <font>
         <strike val="0"/>
@@ -581,35 +581,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Bahnschrift SemiCondensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -993,16 +964,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0194701C-AE90-4BCA-9E31-6E94DB6E67B8}" name="Tabelle2" displayName="Tabelle2" ref="A1:L47" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L47" xr:uid="{0194701C-AE90-4BCA-9E31-6E94DB6E67B8}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{C56ED50E-C13E-4FA9-B047-D3793D60C659}" name="Nr." dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{FD41CDC1-F149-417E-B043-0A5B895952CB}" name="Task" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9F869C1C-506C-4FA3-AC8D-60F2BE61B4FE}" name="Start" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{699DC5DC-FEF4-478C-962B-453E6A4D634C}" name="End" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0194701C-AE90-4BCA-9E31-6E94DB6E67B8}" name="Tabelle2" displayName="Tabelle2" ref="A1:K48" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:K48" xr:uid="{0194701C-AE90-4BCA-9E31-6E94DB6E67B8}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{C56ED50E-C13E-4FA9-B047-D3793D60C659}" name="Nr." dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{FD41CDC1-F149-417E-B043-0A5B895952CB}" name="Task" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9F869C1C-506C-4FA3-AC8D-60F2BE61B4FE}" name="Start" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{AA34C194-EFA3-44A4-9D3F-C859D361EDF3}" name="Planned Completion" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{7E4BDFFD-BCF6-47AF-AD76-B05AB79C0AA9}" name="Actual Completion" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{5CA8EDD0-27F9-49E0-A9A4-A04D62930D67}" name="Planned Hours" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{7E4BDFFD-BCF6-47AF-AD76-B05AB79C0AA9}" name="Planned Hours" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5CA8EDD0-27F9-49E0-A9A4-A04D62930D67}" name="Actual Completion" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{F4BCF4E9-CA8C-48B2-B30E-66271C7A0E01}" name="Actual Hours" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{096C4646-1ED4-46FE-B89A-52CEC625A606}" name="Responsible" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{EAAD8AC5-1A1F-4AB2-AC00-E71525D2046A}" name="Status" dataDxfId="2"/>
@@ -1311,31 +1281,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6686C795-F914-4931-AA02-9A946B2D4200}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1347,10 +1316,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -1364,127 +1333,164 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="C3" s="17">
+        <v>45986</v>
+      </c>
+      <c r="D3" s="17">
+        <v>45987</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="C4" s="17">
+        <v>45993</v>
+      </c>
+      <c r="D4" s="17">
+        <v>45994</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="C5" s="17">
+        <v>46000</v>
+      </c>
+      <c r="D5" s="17">
+        <v>46001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="C6" s="17">
+        <v>46007</v>
+      </c>
+      <c r="D6" s="17">
+        <v>46007</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="C7" s="17">
+        <v>46008</v>
+      </c>
+      <c r="D7" s="17">
+        <v>46014</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="K7" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1494,251 +1500,351 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="C10" s="17">
+        <v>46015</v>
+      </c>
+      <c r="D10" s="17">
+        <v>46017</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="K10" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="C11" s="17">
+        <v>46021</v>
+      </c>
+      <c r="D11" s="17">
+        <v>46022</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="K11" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="C12" s="17">
+        <v>46028</v>
+      </c>
+      <c r="D12" s="17">
+        <v>46029</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="K12" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="C13" s="17">
+        <v>46035</v>
+      </c>
+      <c r="D13" s="17">
+        <v>46036</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="K13" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C14" s="17">
+        <v>46042</v>
+      </c>
+      <c r="D14" s="17">
+        <v>46043</v>
+      </c>
+      <c r="E14" s="6">
+        <v>8</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="K14" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="C15" s="17">
+        <v>46049</v>
+      </c>
+      <c r="D15" s="17">
+        <v>46050</v>
+      </c>
+      <c r="E15" s="6">
+        <v>8</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K15" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="C16" s="17">
+        <v>46056</v>
+      </c>
+      <c r="D16" s="17">
+        <v>46056</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="C17" s="17">
+        <v>46057</v>
+      </c>
+      <c r="D17" s="17">
+        <v>46057</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="K17" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="C18" s="17">
+        <v>46063</v>
+      </c>
+      <c r="D18" s="17">
+        <v>46064</v>
+      </c>
+      <c r="E18" s="6">
+        <v>8</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="K18" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="C19" s="17">
+        <v>46070</v>
+      </c>
+      <c r="D19" s="17">
+        <v>46071</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K19" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="C20" s="17">
+        <v>46077</v>
+      </c>
+      <c r="D20" s="17">
+        <v>46078</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="C21" s="17">
+        <v>46084</v>
+      </c>
+      <c r="D21" s="17">
+        <v>46084</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="K21" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
       <c r="B22" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1748,177 +1854,255 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="C23" s="17">
+        <v>46085</v>
+      </c>
+      <c r="D23" s="17">
+        <v>46091</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="K23" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="C24" s="17">
+        <v>46092</v>
+      </c>
+      <c r="D24" s="17">
+        <v>46098</v>
+      </c>
+      <c r="E24" s="6">
+        <v>8</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="K24" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="C25" s="17">
+        <v>46099</v>
+      </c>
+      <c r="D25" s="17">
+        <v>46105</v>
+      </c>
+      <c r="E25" s="6">
+        <v>8</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="K25" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="C26" s="17">
+        <v>46106</v>
+      </c>
+      <c r="D26" s="17">
+        <v>46112</v>
+      </c>
+      <c r="E26" s="6">
+        <v>8</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="K26" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="C27" s="17">
+        <v>46113</v>
+      </c>
+      <c r="D27" s="17">
+        <v>46119</v>
+      </c>
+      <c r="E27" s="6">
+        <v>8</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="C28" s="17">
+        <v>46120</v>
+      </c>
+      <c r="D28" s="17">
+        <v>46120</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="K28" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="C29" s="17">
+        <v>46121</v>
+      </c>
+      <c r="D29" s="17">
+        <v>46127</v>
+      </c>
+      <c r="E29" s="6">
+        <v>8</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>40</v>
+      <c r="K29" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="C30" s="17">
+        <v>46128</v>
+      </c>
+      <c r="D30" s="17">
+        <v>46134</v>
+      </c>
+      <c r="E30" s="6">
+        <v>8</v>
+      </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>51</v>
+      <c r="K30" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="C31" s="17">
+        <v>46135</v>
+      </c>
+      <c r="D31" s="17">
+        <v>46141</v>
+      </c>
+      <c r="E31" s="6">
+        <v>8</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="K31" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
       <c r="B32" s="12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1928,123 +2112,174 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="C33" s="17">
+        <v>46147</v>
+      </c>
+      <c r="D33" s="17">
+        <v>46147</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K33" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="C34" s="17">
+        <v>46148</v>
+      </c>
+      <c r="D34" s="17">
+        <v>46148</v>
+      </c>
+      <c r="E34" s="6">
+        <v>3</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K34" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="C35" s="17">
+        <v>46154</v>
+      </c>
+      <c r="D35" s="17">
+        <v>46154</v>
+      </c>
+      <c r="E35" s="6">
+        <v>3</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K35" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="C36" s="17">
+        <v>46155</v>
+      </c>
+      <c r="D36" s="17">
+        <v>46155</v>
+      </c>
+      <c r="E36" s="6">
+        <v>3</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K36" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="C37" s="17">
+        <v>46161</v>
+      </c>
+      <c r="D37" s="17">
+        <v>46161</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K37" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="C38" s="17">
+        <v>46162</v>
+      </c>
+      <c r="D38" s="17">
+        <v>46162</v>
+      </c>
+      <c r="E38" s="6">
+        <v>4</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="K38" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
       <c r="B39" s="12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2054,105 +2289,149 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K39" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C40" s="17">
+        <v>46168</v>
+      </c>
+      <c r="D40" s="17">
+        <v>46175</v>
+      </c>
+      <c r="E40" s="6">
+        <v>8</v>
+      </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K40" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="C41" s="17">
+        <v>46176</v>
+      </c>
+      <c r="D41" s="17">
+        <v>46183</v>
+      </c>
+      <c r="E41" s="6">
+        <v>8</v>
+      </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K41" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="C42" s="17">
+        <v>46189</v>
+      </c>
+      <c r="D42" s="17">
+        <v>46196</v>
+      </c>
+      <c r="E42" s="6">
+        <v>8</v>
+      </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K42" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="C43" s="17">
+        <v>46197</v>
+      </c>
+      <c r="D43" s="17">
+        <v>46204</v>
+      </c>
+      <c r="E43" s="6">
+        <v>8</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K43" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="C44" s="17">
+        <v>46210</v>
+      </c>
+      <c r="D44" s="17">
+        <v>46217</v>
+      </c>
+      <c r="E44" s="6">
+        <v>8</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="K44" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
       <c r="B45" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2162,64 +2441,85 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="C46" s="17">
+        <v>46218</v>
+      </c>
+      <c r="D46" s="17">
+        <v>46225</v>
+      </c>
+      <c r="E46" s="6">
+        <v>8</v>
+      </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K46" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="C47" s="17">
+        <v>46226</v>
+      </c>
+      <c r="D47" s="17">
+        <v>46226</v>
+      </c>
+      <c r="E47" s="6">
+        <v>4</v>
+      </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="K47" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L47" s="16"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="9">
+        <f>SUM(E2:E47)</f>
+        <v>258</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="16"/>
       <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -2231,11 +2531,10 @@
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
+      <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -2247,11 +2546,10 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
+      <c r="L50" s="16"/>
       <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -2263,11 +2561,10 @@
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
+      <c r="L51" s="16"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -2279,11 +2576,10 @@
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
+      <c r="L52" s="16"/>
       <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -2295,11 +2591,10 @@
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
+      <c r="L53" s="16"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -2311,11 +2606,10 @@
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
+      <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -2327,11 +2621,10 @@
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
+      <c r="L55" s="16"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -2343,11 +2636,10 @@
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -2359,11 +2651,10 @@
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
+      <c r="L57" s="16"/>
       <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -2374,12 +2665,11 @@
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="16"/>
       <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -2390,12 +2680,11 @@
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -2409,7 +2698,6 @@
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Projectplan.xlsx
+++ b/Projectplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itlabvi\Desktop\tmp\Webshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itlabvi\Desktop\tmp\Itlap-Webshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFA5C4A-2074-482D-97BE-A099D1E6E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDBB911-8804-40FB-BBC3-64C30574A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A8FA9D5E-548F-4804-969D-280856D34470}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8FA9D5E-548F-4804-969D-280856D34470}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -340,6 +340,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -548,13 +551,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,8 +1289,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,9 +1348,9 @@
       <c r="B2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1359,10 +1365,10 @@
       <c r="B3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="19">
         <v>45986</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="19">
         <v>45987</v>
       </c>
       <c r="E3" s="6">
@@ -1386,10 +1392,10 @@
       <c r="B4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="19">
         <v>45993</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="19">
         <v>45994</v>
       </c>
       <c r="E4" s="6">
@@ -1413,10 +1419,10 @@
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="19">
         <v>46000</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="19">
         <v>46001</v>
       </c>
       <c r="E5" s="6">
@@ -1440,10 +1446,10 @@
       <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="19">
         <v>46007</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="19">
         <v>46007</v>
       </c>
       <c r="E6" s="6">
@@ -1467,10 +1473,10 @@
       <c r="B7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="19">
         <v>46008</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="19">
         <v>46014</v>
       </c>
       <c r="E7" s="6">
@@ -1492,8 +1498,8 @@
       <c r="B8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1507,8 +1513,8 @@
       <c r="B9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1524,10 +1530,10 @@
       <c r="B10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="19">
         <v>46015</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="19">
         <v>46017</v>
       </c>
       <c r="E10" s="6">
@@ -1551,10 +1557,10 @@
       <c r="B11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="19">
         <v>46021</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="19">
         <v>46022</v>
       </c>
       <c r="E11" s="6">
@@ -1578,10 +1584,10 @@
       <c r="B12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="19">
         <v>46028</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="19">
         <v>46029</v>
       </c>
       <c r="E12" s="6">
@@ -1605,10 +1611,10 @@
       <c r="B13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="19">
         <v>46035</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="19">
         <v>46036</v>
       </c>
       <c r="E13" s="6">
@@ -1632,10 +1638,10 @@
       <c r="B14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="19">
         <v>46042</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="19">
         <v>46043</v>
       </c>
       <c r="E14" s="6">
@@ -1659,10 +1665,10 @@
       <c r="B15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="19">
         <v>46049</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="19">
         <v>46050</v>
       </c>
       <c r="E15" s="6">
@@ -1686,10 +1692,10 @@
       <c r="B16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="19">
         <v>46056</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="19">
         <v>46056</v>
       </c>
       <c r="E16" s="6">
@@ -1713,10 +1719,10 @@
       <c r="B17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="19">
         <v>46057</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="19">
         <v>46057</v>
       </c>
       <c r="E17" s="6">
@@ -1740,10 +1746,10 @@
       <c r="B18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="19">
         <v>46063</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="19">
         <v>46064</v>
       </c>
       <c r="E18" s="6">
@@ -1767,10 +1773,10 @@
       <c r="B19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="19">
         <v>46070</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="19">
         <v>46071</v>
       </c>
       <c r="E19" s="6">
@@ -1794,10 +1800,10 @@
       <c r="B20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="19">
         <v>46077</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="19">
         <v>46078</v>
       </c>
       <c r="E20" s="6">
@@ -1821,10 +1827,10 @@
       <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="19">
         <v>46084</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="19">
         <v>46084</v>
       </c>
       <c r="E21" s="6">
@@ -1846,8 +1852,8 @@
       <c r="B22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1863,10 +1869,10 @@
       <c r="B23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="19">
         <v>46085</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="19">
         <v>46091</v>
       </c>
       <c r="E23" s="6">
@@ -1890,10 +1896,10 @@
       <c r="B24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="19">
         <v>46092</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="19">
         <v>46098</v>
       </c>
       <c r="E24" s="6">
@@ -1917,10 +1923,10 @@
       <c r="B25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="19">
         <v>46099</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="19">
         <v>46105</v>
       </c>
       <c r="E25" s="6">
@@ -1944,10 +1950,10 @@
       <c r="B26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="19">
         <v>46106</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="19">
         <v>46112</v>
       </c>
       <c r="E26" s="6">
@@ -1971,10 +1977,10 @@
       <c r="B27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="19">
         <v>46113</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="19">
         <v>46119</v>
       </c>
       <c r="E27" s="6">
@@ -1998,10 +2004,10 @@
       <c r="B28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="19">
         <v>46120</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="19">
         <v>46120</v>
       </c>
       <c r="E28" s="6">
@@ -2025,10 +2031,10 @@
       <c r="B29" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="19">
         <v>46121</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="19">
         <v>46127</v>
       </c>
       <c r="E29" s="6">
@@ -2052,10 +2058,10 @@
       <c r="B30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="19">
         <v>46128</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="19">
         <v>46134</v>
       </c>
       <c r="E30" s="6">
@@ -2079,10 +2085,10 @@
       <c r="B31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="19">
         <v>46135</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="19">
         <v>46141</v>
       </c>
       <c r="E31" s="6">
@@ -2104,8 +2110,8 @@
       <c r="B32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2121,10 +2127,10 @@
       <c r="B33" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="19">
         <v>46147</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="19">
         <v>46147</v>
       </c>
       <c r="E33" s="6">
@@ -2148,10 +2154,10 @@
       <c r="B34" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="19">
         <v>46148</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="19">
         <v>46148</v>
       </c>
       <c r="E34" s="6">
@@ -2175,10 +2181,10 @@
       <c r="B35" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="19">
         <v>46154</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="19">
         <v>46154</v>
       </c>
       <c r="E35" s="6">
@@ -2202,10 +2208,10 @@
       <c r="B36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="19">
         <v>46155</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="19">
         <v>46155</v>
       </c>
       <c r="E36" s="6">
@@ -2229,10 +2235,10 @@
       <c r="B37" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="19">
         <v>46161</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="19">
         <v>46161</v>
       </c>
       <c r="E37" s="6">
@@ -2256,10 +2262,10 @@
       <c r="B38" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="19">
         <v>46162</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="19">
         <v>46162</v>
       </c>
       <c r="E38" s="6">
@@ -2281,8 +2287,8 @@
       <c r="B39" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -2300,10 +2306,10 @@
       <c r="B40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="19">
         <v>46168</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="19">
         <v>46175</v>
       </c>
       <c r="E40" s="6">
@@ -2327,10 +2333,10 @@
       <c r="B41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="19">
         <v>46176</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="19">
         <v>46183</v>
       </c>
       <c r="E41" s="6">
@@ -2354,10 +2360,10 @@
       <c r="B42" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="19">
         <v>46189</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="19">
         <v>46196</v>
       </c>
       <c r="E42" s="6">
@@ -2381,10 +2387,10 @@
       <c r="B43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="19">
         <v>46197</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="19">
         <v>46204</v>
       </c>
       <c r="E43" s="6">
@@ -2408,10 +2414,10 @@
       <c r="B44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="19">
         <v>46210</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="19">
         <v>46217</v>
       </c>
       <c r="E44" s="6">
@@ -2433,8 +2439,8 @@
       <c r="B45" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2450,10 +2456,10 @@
       <c r="B46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="19">
         <v>46218</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="19">
         <v>46225</v>
       </c>
       <c r="E46" s="6">
@@ -2477,10 +2483,10 @@
       <c r="B47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="19">
         <v>46226</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="19">
         <v>46226</v>
       </c>
       <c r="E47" s="6">
@@ -2503,7 +2509,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E48" s="9">
@@ -2702,7 +2708,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Projectplan.xlsx
+++ b/Projectplan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
   <si>
     <t>Nr.</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Frontend Part</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>6.</t>
   </si>
   <si>
@@ -130,13 +127,13 @@
     <t>10.</t>
   </si>
   <si>
-    <t>Module(frontend, UI/UX): Fake payment integration supporting credit cards, PayPal, and other local/global gateways</t>
+    <t>Module(frontend, UI/UX): Fake payment integration supporting credit cards, PayPal, and other local/global gateways. As well as promotions support(promo codes with discounts) given by staff(people who manage products) or admins</t>
   </si>
   <si>
     <t>11.</t>
   </si>
   <si>
-    <t>Module(frontend, UI/UX): Order management system with tracking, order history, cancellation, and returns processing</t>
+    <t>Module(frontend, UI/UX): Order management system with tracking, order history, cancellation, and returns processing, an interface to leave reviews</t>
   </si>
   <si>
     <t>12.</t>
@@ -154,7 +151,7 @@
     <t>14.</t>
   </si>
   <si>
-    <t>Module(frontend, UI/UX): Inventory management interface with real-time stock level updates, low stock alerts, and easy restocking workflows</t>
+    <t>Module(frontend, UI/UX): Inventory management interface with real-time stock level updates, low stock alerts, and easy restocking workflows, promotion codes etc.</t>
   </si>
   <si>
     <t>15.</t>
@@ -199,13 +196,13 @@
     <t>21.</t>
   </si>
   <si>
-    <t>Module(backend, email sending involved): Fake payment integration supporting credit cards, PayPal, and other local/global gateways</t>
+    <t>Module(backend, email sending involved): Fake payment integration supporting credit cards, PayPal, and other local/global gateways. As well as promotions support(promo codes with discounts) given by staff(people who manage products) or admins</t>
   </si>
   <si>
     <t>22.</t>
   </si>
   <si>
-    <t>Module(backend, communication with DB): Order management system with tracking, order history, cancellation, and returns processing</t>
+    <t>Module(backend, communication with DB): Order management system with tracking, order history, cancellation, and returns processing, reviews system</t>
   </si>
   <si>
     <t>23.</t>
@@ -217,7 +214,7 @@
     <t>24.</t>
   </si>
   <si>
-    <t>Module(backend, communication with DB): Inventory management interface with real-time stock level updates, low stock alerts, and easy restocking workflows</t>
+    <t>Module(backend, communication with DB): Inventory management interface with real-time stock level updates, low stock alerts, and easy restocking workflows, promotion codes etc.</t>
   </si>
   <si>
     <t>25.</t>
@@ -329,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +352,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Bahnschrift SemiCondensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -496,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -522,6 +525,12 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -534,21 +543,21 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -558,9 +567,6 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -581,6 +587,12 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -627,7 +639,7 @@
     <tableColumn name="On Time" id="10"/>
     <tableColumn name="Approved By" id="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -925,19 +937,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="31" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="31" width="50.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="32" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="32" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="33" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="31" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="31" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="31" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="31" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="31" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="31" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="34" width="50.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="35" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="36" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="35" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="36" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="34" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="34" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="34" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="34" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="34" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -956,10 +968,10 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -986,11 +998,11 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
@@ -998,34 +1010,34 @@
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>45986</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>45987</v>
       </c>
-      <c r="E3" s="12">
-        <v>8</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="14">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13">
         <v>45987</v>
       </c>
-      <c r="G3" s="13">
-        <v>8</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="10">
+        <v>8</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="6"/>
@@ -1035,26 +1047,26 @@
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>45993</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>45994</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="14">
         <v>8</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="6"/>
@@ -1064,26 +1076,26 @@
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>46000</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>46001</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="14">
         <v>6</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="6"/>
@@ -1093,26 +1105,26 @@
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>46007</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>46007</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <v>4</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="6"/>
@@ -1122,26 +1134,26 @@
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>46008</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>46014</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="14">
         <v>10</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="6"/>
@@ -1152,61 +1164,59 @@
       <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="16" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33.75">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>46015</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>46017</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="14">
         <v>8</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="6"/>
@@ -1214,28 +1224,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="47.25">
       <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>46021</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>46022</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="14">
         <v>8</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="6"/>
@@ -1243,28 +1253,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="47.25">
       <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>46028</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="13">
         <v>46029</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="14">
         <v>8</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="6"/>
@@ -1272,57 +1282,57 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="47.25">
       <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>46035</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>46036</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="14">
         <v>8</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="47.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="74.25">
       <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <v>46042</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="13">
         <v>46043</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="14">
         <v>8</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="6"/>
@@ -1330,28 +1340,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="47.25">
       <c r="A15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="C15" s="13">
         <v>46049</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="13">
         <v>46050</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="14">
         <v>8</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="6"/>
@@ -1359,28 +1369,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="C16" s="13">
         <v>46056</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="13">
         <v>46056</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="14">
         <v>4</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="6"/>
@@ -1388,28 +1398,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="C17" s="13">
         <v>46057</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <v>46057</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="14">
         <v>4</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="6"/>
@@ -1417,28 +1427,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.25">
       <c r="A18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="C18" s="13">
         <v>46063</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="13">
         <v>46064</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="14">
         <v>8</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="6"/>
@@ -1446,57 +1456,57 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="47.25">
       <c r="A19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="C19" s="13">
         <v>46070</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="13">
         <v>46071</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="14">
         <v>8</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
       <c r="A20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="C20" s="13">
         <v>46077</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="13">
         <v>46078</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="14">
         <v>8</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="6"/>
@@ -1504,28 +1514,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>46084</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="13">
         <v>46084</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="14">
         <v>4</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="6"/>
@@ -1533,45 +1543,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="7"/>
-      <c r="B22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="33.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="33">
       <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="C23" s="13">
         <v>46085</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="13">
         <v>46091</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="14">
         <v>8</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="6"/>
@@ -1579,28 +1589,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="47.25">
       <c r="A24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="C24" s="13">
         <v>46092</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="13">
         <v>46098</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="14">
         <v>8</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L24" s="6"/>
@@ -1608,57 +1618,57 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="47.25">
       <c r="A25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="C25" s="13">
         <v>46099</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="13">
         <v>46105</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="14">
         <v>8</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="47.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="74.25">
       <c r="A26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="C26" s="13">
         <v>46106</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="13">
         <v>46112</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="14">
         <v>8</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10" t="s">
+      <c r="G26" s="10"/>
+      <c r="H26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="6"/>
@@ -1666,28 +1676,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="47.25">
       <c r="A27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="C27" s="13">
         <v>46113</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="13">
         <v>46119</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="14">
         <v>8</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L27" s="6"/>
@@ -1695,57 +1705,57 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="C28" s="13">
         <v>46120</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="13">
         <v>46120</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="14">
         <v>4</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="47.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="60.75">
       <c r="A29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="C29" s="13">
         <v>46121</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="13">
         <v>46127</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="14">
         <v>8</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="6"/>
@@ -1753,28 +1763,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="47.25">
       <c r="A30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="11">
+      <c r="C30" s="13">
         <v>46128</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="13">
         <v>46134</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="14">
         <v>8</v>
       </c>
       <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="10" t="s">
+      <c r="G30" s="19"/>
+      <c r="H30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L30" s="6"/>
@@ -1782,655 +1792,655 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="47.25">
       <c r="A31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="C31" s="13">
         <v>46135</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="13">
         <v>46141</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="14">
         <v>8</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10" t="s">
+      <c r="G31" s="10"/>
+      <c r="H31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="23.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="C33" s="13">
         <v>46147</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="13">
         <v>46147</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="14">
         <v>3</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10" t="s">
+      <c r="G33" s="10"/>
+      <c r="H33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="C34" s="13">
         <v>46148</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="13">
         <v>46148</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="14">
         <v>3</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10" t="s">
+      <c r="G34" s="10"/>
+      <c r="H34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="C35" s="13">
         <v>46154</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="13">
         <v>46154</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="14">
         <v>3</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10" t="s">
+      <c r="G35" s="10"/>
+      <c r="H35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="33.75">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="C36" s="13">
         <v>46155</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="13">
         <v>46155</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="14">
         <v>3</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10" t="s">
+      <c r="G36" s="10"/>
+      <c r="H36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="C37" s="13">
         <v>46161</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="13">
         <v>46161</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="14">
         <v>2</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10" t="s">
+      <c r="G37" s="10"/>
+      <c r="H37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="11">
+      <c r="C38" s="13">
         <v>46162</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="13">
         <v>46162</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="14">
         <v>4</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10" t="s">
+      <c r="G38" s="10"/>
+      <c r="H38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="23.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="10" t="s">
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="11">
+      <c r="C40" s="13">
         <v>46168</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="13">
         <v>46175</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="14">
         <v>8</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10" t="s">
+      <c r="G40" s="10"/>
+      <c r="H40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="C41" s="13">
         <v>46176</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="13">
         <v>46183</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="14">
         <v>8</v>
       </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10" t="s">
+      <c r="G41" s="10"/>
+      <c r="H41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="11">
+      <c r="C42" s="13">
         <v>46189</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="13">
         <v>46196</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="14">
         <v>8</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10" t="s">
+      <c r="G42" s="10"/>
+      <c r="H42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="11">
+      <c r="C43" s="13">
         <v>46197</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="13">
         <v>46204</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="14">
         <v>8</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10" t="s">
+      <c r="G43" s="10"/>
+      <c r="H43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="11">
+      <c r="C44" s="13">
         <v>46210</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="13">
         <v>46217</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="14">
         <v>8</v>
       </c>
       <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10" t="s">
+      <c r="G44" s="10"/>
+      <c r="H44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="19"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="C46" s="13">
         <v>46218</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="13">
         <v>46225</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="14">
         <v>8</v>
       </c>
       <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="10" t="s">
+      <c r="G46" s="10"/>
+      <c r="H46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="11">
+      <c r="C47" s="13">
         <v>46226</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="13">
         <v>46226</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="14">
         <v>4</v>
       </c>
       <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="10" t="s">
+      <c r="G47" s="10"/>
+      <c r="H47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12" t="s">
         <v>17</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="19"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="23">
+      <c r="A48" s="21"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="24">
         <f>SUM(E2:E47)</f>
       </c>
       <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="24"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="25"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="33"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="26"/>
+      <c r="K58" s="27"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="33"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="26"/>
+      <c r="K59" s="27"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="33"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
